--- a/Introduction Materials/Tentative Schedule.xlsx
+++ b/Introduction Materials/Tentative Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamsoliman/Library/CloudStorage/Dropbox/Unis/Clemson/Econometrics Course/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamsoliman/Documents/GitHub/IntroEconometrics/Introduction Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7D1F37-2491-834C-9C3F-7368C73F8BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E1C757-74EC-0E4F-A5B7-AE468B9EAAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15240" xr2:uid="{72D0DB20-A265-EC45-9D54-DA8133B16545}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
-  <si>
-    <t>NO CLASS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Introduction</t>
   </si>
@@ -197,9 +194,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -237,7 +234,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -343,7 +340,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -485,7 +482,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -496,7 +493,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -508,10 +505,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -519,7 +516,7 @@
         <v>45526</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -527,7 +524,7 @@
         <v>45531</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -535,7 +532,7 @@
         <v>45533</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -544,7 +541,7 @@
         <v>45538</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -553,7 +550,7 @@
         <v>45540</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -562,7 +559,7 @@
         <v>45545</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -571,7 +568,7 @@
         <v>45547</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -580,7 +577,7 @@
         <v>45552</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -589,7 +586,7 @@
         <v>45554</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -598,7 +595,7 @@
         <v>45559</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -607,7 +604,7 @@
         <v>45561</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -616,16 +613,16 @@
         <v>45566</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>45568</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -634,7 +631,7 @@
         <v>45573</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -643,7 +640,7 @@
         <v>45575</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -652,7 +649,7 @@
         <v>45580</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -661,7 +658,7 @@
         <v>45582</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -670,7 +667,7 @@
         <v>45587</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -679,7 +676,7 @@
         <v>45589</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -688,7 +685,7 @@
         <v>45594</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -697,7 +694,7 @@
         <v>45596</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -706,7 +703,7 @@
         <v>45601</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -715,7 +712,7 @@
         <v>45603</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -724,7 +721,7 @@
         <v>45608</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -733,7 +730,7 @@
         <v>45610</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -742,7 +739,7 @@
         <v>45615</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -751,7 +748,7 @@
         <v>45617</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -760,7 +757,7 @@
         <v>45622</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -769,7 +766,7 @@
         <v>45624</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -778,7 +775,7 @@
         <v>45629</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -787,7 +784,7 @@
         <v>45631</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
